--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_103.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_103.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,77 +488,82 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_20</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2375</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B']]</t>
-        </is>
+          <t>isophonics_229</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_174</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1493055555555556</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
+          <t>[['A:maj/9', 'B', 'E']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(209.04, 217.18)]</t>
+          <t>[['G', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(8.86, 14.12)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:22.599387', '0:00:29.576984')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:44.836000', '0:00:49.319000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_151</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(2.68, 6.46)]</t>
+          <t>[['Bb', 'F', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(8.18, 14.18)]</t>
+          <t>[('0:02:01.080000', '0:02:02.340000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:22.564557', '0:00:28.578526')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -561,560 +571,585 @@
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1833333333333333</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'C:maj'], ['F:maj', 'A#:maj', 'F:maj'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>jaah_32</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_171</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0936055469953775</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min/A', 'A:maj'], ['D:maj', 'G:maj', 'D:maj/F#'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['G', 'G', 'G']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(13.46, 18.4), (118.44, 121.68), (0.24, 5.08)]</t>
+          <t>[['E', 'E', 'E']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(32.18, 34.74), (67.14, 70.82), (8.18, 13.26)]</t>
+          <t>[('0:00:03.010000', '0:00:07.270000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:12.263975', '0:00:17.488465')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D'], ['B:min', 'F#:maj/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3314393939393939</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(0.68, 2.98), (16.26, 19.34)]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(8.3, 12.96), (0.78, 5.26)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:20.560000', '0:00:26.400000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:00.320000', '0:00:10.960000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.04807692307692308</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G']]</t>
-        </is>
+          <t>isophonics_251</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_149</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2967032967032967</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>[['A', 'D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(226.62, 230.46), (20.92, 24.02), (7.3, 10.3)]</t>
+          <t>[['F#', 'B', 'E', 'B']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(70.98, 80.44), (42.44, 44.36), (90.6, 101.18)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:57.401473', '0:01:06.677845')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:47.211020', '0:00:56.394512')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_13</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0711590296495957</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G/3', 'G', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb', 'Eb']]</t>
+          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(1.366439, 5.255782)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(38.77, 46.94)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:01:58.400000', '0:02:02.040000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_225</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.09642857142857142</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'C:min']]</t>
-        </is>
+          <t>isophonics_275</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min/b7']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(21.42, 26.04)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(40.049, 48.539)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:08.158789', '0:00:22.589990')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2626728110599078</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>isophonics_147</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(62.48, 64.92)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(28.009637, 33.826235)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:19.435000', '0:00:32.669000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(107.64, 108.84)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(31.840929, 39.410634)]</t>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
+          <t>[('0:01:01.320000', '0:01:03.700000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4491978609625669</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G', 'D', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'B', 'A', 'E']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(8.158789, 28.202)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(19.435, 54.729)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+          <t>[('0:00:04.760000', '0:01:58.780000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:06.300000', '0:01:53.780000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(59.8, 69.34)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(19.78, 25.82)]</t>
+          <t>[('0:00:00.400000', '0:00:09.040000'), ('0:00:55.180000', '0:01:02.060000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:01:06.920000', '0:01:08.180000'), ('0:01:05.200000', '0:01:07.500000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'C', 'G', 'C', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F', 'C/3', 'F', 'C/3', 'F', 'C/3', 'F']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(26.391305, 37.943232)]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(76.132993, 79.523105)]</t>
+          <t>[('0:00:00.220000', '0:00:21.940000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:00:01.640000', '0:00:23.800000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_16</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_25</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.106860632183908</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:7', 'B:7', 'E:7', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C:7', 'F:7', 'Bb']]</t>
+          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min', 'A#:maj/D', 'D#:maj', 'F:7', 'A#:maj', 'G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(41.1, 45.78)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(43.56, 51.08)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:14.520000', '0:00:59.040000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:13.420000', '0:00:53.020000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_245</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0960960960960961</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:min', 'F:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min', 'F#:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(13.648526, 21.12535)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(36.732085, 40.296348)]</t>
+          <t>[('0:00:00.240000', '0:00:35.100000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>[('0:00:00.380000', '0:00:31.160000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1041666666666667</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E', 'B', 'E']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7333333333333334</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:maj', 'C#:maj']]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(16.701519, 23.528185)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(9.06, 10.78)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_77</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_46</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1905405405405405</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'D:maj/2']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'C']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(27.877925, 31.546678)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(16.15102, 20.423492)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
